--- a/examples/sources/data/unsolved/to_schedule/2019-04-26.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-26.xlsx
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -4533,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87" s="2">
         <v>43581</v>
@@ -4779,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93" s="2">
         <v>43581</v>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131">
         <v>1</v>
